--- a/data/diccionario_cod.variable.xlsx
+++ b/data/diccionario_cod.variable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ceped-data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\CEPED home office\ceped-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874EDB51-A5BC-4B4C-9097-A32CA90573BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA067B40-3423-473F-B9D3-B05162750232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8550" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Salario relativo a USA consumo efectivo</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>Serie_salarios</t>
   </si>
 </sst>
 </file>
@@ -413,95 +419,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/diccionario_cod.variable.xlsx
+++ b/data/diccionario_cod.variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\CEPED home office\ceped-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA067B40-3423-473F-B9D3-B05162750232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF61A10-8395-44AD-A7C1-47DEEDA43BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Serie_salarios</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>Esta variable indica…..</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,7 +437,7 @@
     <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -441,8 +447,11 @@
       <c r="C1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -452,8 +461,11 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -463,8 +475,11 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -474,8 +489,11 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -485,8 +503,11 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -496,8 +517,11 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -507,8 +531,11 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -518,8 +545,11 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -529,8 +559,11 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -539,6 +572,9 @@
       </c>
       <c r="C10" t="s">
         <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/diccionario_cod.variable.xlsx
+++ b/data/diccionario_cod.variable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\CEPED home office\ceped-data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF61A10-8395-44AD-A7C1-47DEEDA43BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BAEF29-AA27-4D32-9E7E-96F9A2ABAEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -58,15 +58,9 @@
     <t>Indice de Precios al Consumido (base 2005)</t>
   </si>
   <si>
-    <t>Salario PPA consumo privado</t>
-  </si>
-  <si>
     <t>Salario en unidad monetaria nacional</t>
   </si>
   <si>
-    <t>Salario real (base 2005)</t>
-  </si>
-  <si>
     <t>Salario PPA consumo actual precios corrientes</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>Salario relativo a USA consumo privado</t>
   </si>
   <si>
-    <t>Salario PPA consumo efectivo</t>
-  </si>
-  <si>
     <t>Salario relativo a USA consumo efectivo</t>
   </si>
   <si>
@@ -92,6 +83,21 @@
   </si>
   <si>
     <t>Esta variable indica…..</t>
+  </si>
+  <si>
+    <t>Coeficiente PPA consumo efectivo</t>
+  </si>
+  <si>
+    <t>Coeficiente PPA consumo privado</t>
+  </si>
+  <si>
+    <t>Salario real (base 2005) en unidad monetaria nacional</t>
+  </si>
+  <si>
+    <t>indice_salario_real_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indice Salario real (base 2005) </t>
   </si>
 </sst>
 </file>
@@ -425,19 +431,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -445,13 +451,13 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -459,122 +465,136 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/diccionario_cod.variable.xlsx
+++ b/data/diccionario_cod.variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BAEF29-AA27-4D32-9E7E-96F9A2ABAEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA479314-33CB-4715-BD18-5360072708EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,13 +91,13 @@
     <t>Coeficiente PPA consumo privado</t>
   </si>
   <si>
-    <t>Salario real (base 2005) en unidad monetaria nacional</t>
-  </si>
-  <si>
     <t>indice_salario_real_2005</t>
   </si>
   <si>
-    <t xml:space="preserve">Indice Salario real (base 2005) </t>
+    <t>Salario real (2005  = 100) en unidad monetaria nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indice Salario real (2005 = 100) </t>
   </si>
 </sst>
 </file>
@@ -433,9 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -518,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -585,7 +583,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>

--- a/data/diccionario_cod.variable.xlsx
+++ b/data/diccionario_cod.variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA479314-33CB-4715-BD18-5360072708EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F703375-6359-4030-A9A7-2356C5199E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -98,6 +98,147 @@
   </si>
   <si>
     <t xml:space="preserve">Indice Salario real (2005 = 100) </t>
+  </si>
+  <si>
+    <t>TCNA_DL_Ferreres</t>
+  </si>
+  <si>
+    <t>TCNA_EXPO_Ferreres</t>
+  </si>
+  <si>
+    <t>TCNA_JIC</t>
+  </si>
+  <si>
+    <t>TCNA_Arceo</t>
+  </si>
+  <si>
+    <t>TCRA_2007_DL_Ferreres</t>
+  </si>
+  <si>
+    <t>TCRA_2007_EXPO_Ferreres</t>
+  </si>
+  <si>
+    <t>TCRA_2007_JIC</t>
+  </si>
+  <si>
+    <t>TCRA_2007_Arceo</t>
+  </si>
+  <si>
+    <t>Tipo de cambio nominal anual - Dólar Libre (Ferreres = Billetes Argentinos)</t>
+  </si>
+  <si>
+    <t>Tipo de cambio nominal anual - Dólar Exportaciones (Ferreres)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de cambio nominal anual - Iñigo Carrera </t>
+  </si>
+  <si>
+    <t>Tipo de cambio nominal anual - Arceo</t>
+  </si>
+  <si>
+    <t>Tipo_Cambio_Arg</t>
+  </si>
+  <si>
+    <t>Tipo de cambio real anual  (2007 = 100)- Dólar Libre (Ferreres = Billetes Argentinos)</t>
+  </si>
+  <si>
+    <t>Tipo de cambio real anual  (2007 = 100)- Dólar Exportaciones (Ferreres)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de cambio real anual  (2007 = 100)- Iñigo Carrera </t>
+  </si>
+  <si>
+    <t>Tipo de cambio real anual  (2007 = 100)- Arceo</t>
+  </si>
+  <si>
+    <t>Tipo de cambio de paridad anual - Metodología IPC - (Base-60-71) - Dólar Libre (Ferreres = Billetes Argentinos)</t>
+  </si>
+  <si>
+    <t>Tipo de cambio de paridad anual - Metodología IPC - (Base-60-71) - Dólar Exportaciones (Ferreres)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de cambio de paridad anual - Metodología IPC - (Base-60-71) - Iñigo Carrera </t>
+  </si>
+  <si>
+    <t>Tipo de cambio de paridad anual - Metodología IPC - (Base-60-71)  - Arceo</t>
+  </si>
+  <si>
+    <t>TCP_IPC_DL_Ferreres</t>
+  </si>
+  <si>
+    <t>TCP_IPC_EXPO_Ferreres</t>
+  </si>
+  <si>
+    <t>TCP_IPC_JIC</t>
+  </si>
+  <si>
+    <t>TCP_IPC_Arceo</t>
+  </si>
+  <si>
+    <t>TCP_IPC_PROD_DL_Ferreres</t>
+  </si>
+  <si>
+    <t>TCP_IPC_PROD_EXPO_Ferreres</t>
+  </si>
+  <si>
+    <t>TCP_IPC_PROD_JIC</t>
+  </si>
+  <si>
+    <t>TCP_IPC_PROD_Arceo</t>
+  </si>
+  <si>
+    <t>Tipo de cambio de paridad anual - Metodología IPC + Productividad - (Base-60-71) - Dólar Libre (Ferreres = Billetes Argentinos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de cambio de paridad anual - Metodología IPC + Productividad - (Base-60-71) - Iñigo Carrera </t>
+  </si>
+  <si>
+    <t>Tipo de cambio de paridad anual - Metodología IPC + Productividad - (Base-60-71)  - Arceo</t>
+  </si>
+  <si>
+    <t>GS_IPC_DL_Ferreres</t>
+  </si>
+  <si>
+    <t>GS_IPC_EXPO_Ferreres</t>
+  </si>
+  <si>
+    <t>GS_IPC_JIC</t>
+  </si>
+  <si>
+    <t>GS_IPC_Arceo</t>
+  </si>
+  <si>
+    <t>GS_IPC_PROD_DL_Ferreres</t>
+  </si>
+  <si>
+    <t>GS_IPC_PROD_EXPO_Ferreres</t>
+  </si>
+  <si>
+    <t>GS_IPC_PROD_JIC</t>
+  </si>
+  <si>
+    <t>GS_IPC_PROD_Arceo</t>
+  </si>
+  <si>
+    <t>Grado de sobrevaluación - Metodología IPC - (Base-60-71) - Dólar Libre (Ferreres = Billetes Argentinos)</t>
+  </si>
+  <si>
+    <t>Grado de sobrevaluación - Metodología IPC - (Base-60-71) - Dólar Exportaciones (Ferreres)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grado de sobrevaluación - Metodología IPC - (Base-60-71) - Iñigo Carrera </t>
+  </si>
+  <si>
+    <t>Grado de sobrevaluación - Metodología IPC - (Base-60-71)  - Arceo</t>
+  </si>
+  <si>
+    <t>Grado de sobrevaluación - Metodología IPC + Productividad - (Base-60-71) - Dólar Libre (Ferreres = Billetes Argentinos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grado de sobrevaluación - Metodología IPC + Productividad - (Base-60-71) - Iñigo Carrera </t>
+  </si>
+  <si>
+    <t>Grado de sobrevaluación - Metodología IPC + Productividad - (Base-60-71)  - Arceo</t>
   </si>
 </sst>
 </file>
@@ -431,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,6 +736,270 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/diccionario_cod.variable.xlsx
+++ b/data/diccionario_cod.variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F703375-6359-4030-A9A7-2356C5199E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C44D684-D21D-4A75-A19A-A30D69AD6AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -82,9 +82,6 @@
     <t>metadata</t>
   </si>
   <si>
-    <t>Esta variable indica…..</t>
-  </si>
-  <si>
     <t>Coeficiente PPA consumo efectivo</t>
   </si>
   <si>
@@ -239,6 +236,36 @@
   </si>
   <si>
     <t>Grado de sobrevaluación - Metodología IPC + Productividad - (Base-60-71)  - Arceo</t>
+  </si>
+  <si>
+    <t>Esta variable indica el coeficiente de paridad de poder adquisitivo correspondiente al agregado "consumo privado". La serie está construida a partir del coeficiente del benchmark del año 2017 publicado por el Banco Mundial, extrapolado con la evolución de los índices de precios al consumidor de los países respecto a la evolución del índice de precios al consumidor de Estados Unidos</t>
+  </si>
+  <si>
+    <t>Esta variable indica el coeficiente de paridad de poder adquisitivo correspondiente al agregado "consumo actual". La serie está construida a partir del coeficiente del benchmark del año 2017 publicado por el Banco Mundial, extrapolado con la evolución de los índices de precios al consumidor de los países respecto a la evolución del índice de precios al consumidor de Estados Unidos</t>
+  </si>
+  <si>
+    <t>Esta variable indica el salario nominal doblemente bruto  en unidades de moneda nacional que surge de las estimaciones de Cuentas Nacionales de los respectivos países. Es el equivalente al cociente entre la masa salarial y la cantidad de asalariados promedio del año. Expresado en términos mensuales</t>
+  </si>
+  <si>
+    <t>Esta variable indica el salario real doblemente bruto  en unidades de moneda nacional que surge de las estimaciones de Cuentas Nacionales de los respectivos países. Es el equivalente al cociente entre la masa salarial y la cantidad de asalariados promedio del año, ajustada por la evolución anual del Índice de Precios al Consumidor de cada país.</t>
+  </si>
+  <si>
+    <t>Esta variable indica el salario doblemente bruto en unidades de moneda de paridad de poder adquisitivo correspondientes al agregado "consumo privado". Se construye a partir del cociente entre las variables Salario.UMN y PPA_c_priv_serie</t>
+  </si>
+  <si>
+    <t>Esta variable indica el salario doblemente bruto en unidades de moneda de paridad de poder adquisitivo correspondientes al agregado "consumo actual". Se construye a partir del cociente entre las variables "Salario.UMN" y "PPA_c_actual_serie"</t>
+  </si>
+  <si>
+    <t>Esta variable indica el salario doblemente bruto en unidades de moneda de paridad de poder adquisitivo correspondientes al agregado "consumo privado" expresado en términos relativos al salario de Estados Unidos.</t>
+  </si>
+  <si>
+    <t>Esta variable indica el salario doblemente bruto en unidades de moneda de paridad de poder adquisitivo correspondientes al agregado "consumo actual" expresado en términos relativos al salario de Estados Unidos.</t>
+  </si>
+  <si>
+    <t>Esta variable presenta un índice de evolución del salario real doblemente bruto  que surge de las estimaciones de Cuentas Nacionales y de los Índices de Precios al Consumidor de los respectivos países (2005 = 100).</t>
+  </si>
+  <si>
+    <t>Esta variable indica la evolución del Índices de Precios al Consumidor de los respectivos países (2005 = 100).</t>
   </si>
 </sst>
 </file>
@@ -574,7 +601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -607,7 +636,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,13 +644,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -629,13 +658,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -657,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -677,7 +706,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -691,7 +720,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,7 +734,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -719,285 +748,285 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/diccionario_cod.variable.xlsx
+++ b/data/diccionario_cod.variable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\CEPED home office\ceped-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C44D684-D21D-4A75-A19A-A30D69AD6AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33DEBE0-B4B6-450E-B886-4715047ED068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -601,17 +601,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -625,7 +625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +639,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -653,7 +653,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -667,7 +667,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -681,7 +681,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -695,7 +695,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -709,7 +709,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -723,7 +723,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -737,7 +737,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -751,7 +751,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -765,7 +765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -776,7 +776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -787,7 +787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -809,7 +809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -820,7 +820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -831,7 +831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -842,7 +842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -853,7 +853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -864,7 +864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -875,7 +875,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -886,7 +886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -897,7 +897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -908,7 +908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -919,7 +919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -930,7 +930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -941,7 +941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -952,7 +952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -963,7 +963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -974,7 +974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -985,7 +985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -996,7 +996,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>64</v>
       </c>

--- a/data/diccionario_cod.variable.xlsx
+++ b/data/diccionario_cod.variable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\CEPED home office\ceped-data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ceped-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33DEBE0-B4B6-450E-B886-4715047ED068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1191DEE2-4D0D-4C95-86F1-943D142CEE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8550" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>nombre.variable</t>
   </si>
   <si>
-    <t>Indice de Precios al Consumido (base 2005)</t>
-  </si>
-  <si>
     <t>Salario en unidad monetaria nacional</t>
   </si>
   <si>
@@ -266,6 +263,9 @@
   </si>
   <si>
     <t>Esta variable indica la evolución del Índices de Precios al Consumidor de los respectivos países (2005 = 100).</t>
+  </si>
+  <si>
+    <t>Indice de Precios al Consumidor (base 2005)</t>
   </si>
 </sst>
 </file>
@@ -601,17 +601,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -619,414 +619,414 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>59</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>68</v>
       </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>63</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/diccionario_cod.variable.xlsx
+++ b/data/diccionario_cod.variable.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ceped-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1191DEE2-4D0D-4C95-86F1-943D142CEE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBDB8D1-E0B5-4A46-94BA-11E0C0F5A03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8550" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -266,6 +275,90 @@
   </si>
   <si>
     <t>Indice de Precios al Consumidor (base 2005)</t>
+  </si>
+  <si>
+    <t>Mercado_de_Trabajo_Arg</t>
+  </si>
+  <si>
+    <t>desocupados_abs</t>
+  </si>
+  <si>
+    <t>ocupados_abs</t>
+  </si>
+  <si>
+    <t>pea_abs</t>
+  </si>
+  <si>
+    <t>subocupados_abs</t>
+  </si>
+  <si>
+    <t>Desocupados (valores absolutos)</t>
+  </si>
+  <si>
+    <t>Ocupados (valores absolutos)</t>
+  </si>
+  <si>
+    <t>Pea (valores absolutos)</t>
+  </si>
+  <si>
+    <t>Subocupados (valores absolutos)</t>
+  </si>
+  <si>
+    <t>t_actividad</t>
+  </si>
+  <si>
+    <t>Tasa de actividad</t>
+  </si>
+  <si>
+    <t>Tasa de empleo</t>
+  </si>
+  <si>
+    <t>t_empleo</t>
+  </si>
+  <si>
+    <t>t_desocupacion</t>
+  </si>
+  <si>
+    <t>t_subocupacion</t>
+  </si>
+  <si>
+    <t>Tasa de desocupación</t>
+  </si>
+  <si>
+    <t>Tasa de subocupación</t>
+  </si>
+  <si>
+    <t>Poblacion_eph</t>
+  </si>
+  <si>
+    <t>28_Aglomerados</t>
+  </si>
+  <si>
+    <t>Resto_Urbano</t>
+  </si>
+  <si>
+    <t>Total_Urbano</t>
+  </si>
+  <si>
+    <t>Total_Rural</t>
+  </si>
+  <si>
+    <t>Total_País</t>
+  </si>
+  <si>
+    <t>Población 28 Aglomerados</t>
+  </si>
+  <si>
+    <t>Población Resto Urbano</t>
+  </si>
+  <si>
+    <t>Población Total Urbano</t>
+  </si>
+  <si>
+    <t>Población Total Rural</t>
+  </si>
+  <si>
+    <t>Población Total País</t>
   </si>
 </sst>
 </file>
@@ -599,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,6 +1122,149 @@
         <v>36</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/diccionario_cod.variable.xlsx
+++ b/data/diccionario_cod.variable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ceped-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBDB8D1-E0B5-4A46-94BA-11E0C0F5A03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3C90F7-226D-497D-A7D7-9549B17E4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="159">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -359,6 +359,153 @@
   </si>
   <si>
     <t>Población Total País</t>
+  </si>
+  <si>
+    <t>Cantidad absoluta de personas desocupadas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Cantidad absoluta de personas ocupadas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Cantidad absoluta de personas en la Población Económicamente Activa. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Cantidad absoluta de personas subocupadas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Tasa de Actividad. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Tasa de Empleo. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Tasa de Desocupación. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Tasa de Subocupación. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Población de 28 aglomerados urbanos.  Estimación del CEPED en base a la Encuesta Permanente de Hogares (EPH-INDEC) y proyecciones poblacionales del INDEC. Estimaciones absolutas trimestrales.</t>
+  </si>
+  <si>
+    <t>Población Resto Urbano.  Estimación del CEPED en base a la Encuesta Permanente de Hogares (EPH-INDEC) y proyecciones poblacionales del INDEC. Estimaciones absolutas trimestrales.</t>
+  </si>
+  <si>
+    <t>Población total urbana.  Estimación del CEPED en base a la Encuesta Permanente de Hogares (EPH-INDEC) y proyecciones poblacionales del INDEC. Estimaciones absolutas trimestrales.</t>
+  </si>
+  <si>
+    <t>Población total rural.  Estimación del CEPED en base a la Encuesta Permanente de Hogares (EPH-INDEC) y proyecciones poblacionales del INDEC. Estimaciones absolutas trimestrales.</t>
+  </si>
+  <si>
+    <t>Población total país.  Estimación del CEPED en base a la Encuesta Permanente de Hogares (EPH-INDEC) y proyecciones poblacionales del INDEC. Estimaciones absolutas trimestrales.</t>
+  </si>
+  <si>
+    <t>eph_mercado_de_trabajo_categoria_ocupacional</t>
+  </si>
+  <si>
+    <t>patron</t>
+  </si>
+  <si>
+    <t>cuenta_propia</t>
+  </si>
+  <si>
+    <t>asalariado</t>
+  </si>
+  <si>
+    <t>TFSS</t>
+  </si>
+  <si>
+    <t>desconocido</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>porc_patron</t>
+  </si>
+  <si>
+    <t>porc_cuenta_propia</t>
+  </si>
+  <si>
+    <t>porc_asalariado</t>
+  </si>
+  <si>
+    <t>porc_TFSS</t>
+  </si>
+  <si>
+    <t>porc_esconocido</t>
+  </si>
+  <si>
+    <t>porc_total</t>
+  </si>
+  <si>
+    <t>Patrón  (valores absolutos)</t>
+  </si>
+  <si>
+    <t>Cuenta Propia (valores absolutos)</t>
+  </si>
+  <si>
+    <t>Asalariado  (valores absolutos)</t>
+  </si>
+  <si>
+    <t>Trab Fliar s/salario  (valores absolutos)</t>
+  </si>
+  <si>
+    <t>Desconocido  (valores absolutos)</t>
+  </si>
+  <si>
+    <t>Total  (valores absolutos)</t>
+  </si>
+  <si>
+    <t>Patrón  (porcentaje)</t>
+  </si>
+  <si>
+    <t>Cuenta Propia (porcentaje)</t>
+  </si>
+  <si>
+    <t>Asalariado  (porcentaje)</t>
+  </si>
+  <si>
+    <t>Trab Fliar s/salario  (porcentaje)</t>
+  </si>
+  <si>
+    <t>Desconocido  (porcentaje)</t>
+  </si>
+  <si>
+    <t>Total  (porcentaje)</t>
+  </si>
+  <si>
+    <t>Cantidad absoluta de personas ocupadas como patrones. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Cantidad absoluta de personas ocupadas como cuentapropistas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Cantidad absoluta de personas ocupadas como asalariadas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Cantidad absoluta de personas ocupadas como trabajador familiar sin salario. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Cantidad absoluta de personas ocupadas con categoría ocupacional desconocida. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Porcentaje de personas ocupadas como patrones. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Porcentaje de personas ocupadas como cuentapropistas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Porcentaje de personas ocupadas como asalariadas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Porcentaje de personas ocupadas como trabajador familiar sin salario. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Porcentaje de personas ocupadas con categoría ocupacional desconocida. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Porcentaje total de personas ocupadas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
   </si>
 </sst>
 </file>
@@ -692,16 +839,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="71.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1089,7 +1238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1100,7 +1249,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1111,7 +1260,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -1122,7 +1271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -1132,8 +1281,11 @@
       <c r="C36" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -1143,8 +1295,11 @@
       <c r="C37" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -1154,8 +1309,11 @@
       <c r="C38" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -1165,8 +1323,11 @@
       <c r="C39" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -1176,8 +1337,11 @@
       <c r="C40" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -1187,8 +1351,11 @@
       <c r="C41" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -1198,8 +1365,11 @@
       <c r="C42" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -1209,8 +1379,11 @@
       <c r="C43" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -1220,8 +1393,11 @@
       <c r="C44" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -1231,8 +1407,11 @@
       <c r="C45" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -1242,8 +1421,11 @@
       <c r="C46" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -1253,8 +1435,11 @@
       <c r="C47" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -1263,6 +1448,177 @@
       </c>
       <c r="C48" t="s">
         <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
